--- a/Documentation/TestResults.xlsx
+++ b/Documentation/TestResults.xlsx
@@ -20,183 +20,90 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
   <si>
     <t xml:space="preserve">Waypoints</t>
   </si>
   <si>
-    <t xml:space="preserve">Restrições</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Capacidade (kgs)</t>
+    <t xml:space="preserve">Capacidade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Restrictions</t>
   </si>
   <si>
     <t xml:space="preserve">Tempo (s)</t>
   </si>
   <si>
-    <t xml:space="preserve">0.022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.919</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.733</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.690</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.850</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.030</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.790</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.610</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">75.943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.730</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.841</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.220</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.841</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.380</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.550</t>
+    <t xml:space="preserve">0.023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.050</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.750</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.120</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.392</t>
   </si>
 </sst>
 </file>
@@ -356,8 +263,8 @@
   </sheetPr>
   <dimension ref="A1:F98"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I47" activeCellId="0" sqref="I47"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E33" activeCellId="0" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -393,13 +300,13 @@
     <row r="3" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="6"/>
       <c r="B3" s="7" t="n">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="C3" s="7" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="D3" s="7" t="n">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="E3" s="8" t="s">
         <v>4</v>
@@ -409,13 +316,13 @@
     <row r="4" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="6"/>
       <c r="B4" s="7" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="C4" s="7" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="D4" s="7" t="n">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="E4" s="8" t="s">
         <v>5</v>
@@ -425,13 +332,13 @@
     <row r="5" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="6"/>
       <c r="B5" s="7" t="n">
-        <v>2000</v>
+        <v>500</v>
       </c>
       <c r="C5" s="7" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="D5" s="7" t="n">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="E5" s="8" t="s">
         <v>6</v>
@@ -441,13 +348,13 @@
     <row r="6" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="6"/>
       <c r="B6" s="7" t="n">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="C6" s="7" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="D6" s="7" t="n">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="E6" s="8" t="s">
         <v>7</v>
@@ -457,13 +364,13 @@
     <row r="7" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="6"/>
       <c r="B7" s="7" t="n">
-        <v>10000</v>
+        <v>2000</v>
       </c>
       <c r="C7" s="7" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="D7" s="7" t="n">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="E7" s="8" t="s">
         <v>8</v>
@@ -472,18 +379,34 @@
     </row>
     <row r="8" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="6"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="8"/>
+      <c r="B8" s="7" t="n">
+        <v>5000</v>
+      </c>
+      <c r="C8" s="7" t="n">
+        <v>5000</v>
+      </c>
+      <c r="D8" s="7" t="n">
+        <v>100</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>9</v>
+      </c>
       <c r="F8" s="3"/>
     </row>
     <row r="9" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="6"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="8"/>
+      <c r="B9" s="7" t="n">
+        <v>10000</v>
+      </c>
+      <c r="C9" s="7" t="n">
+        <v>5000</v>
+      </c>
+      <c r="D9" s="7" t="n">
+        <v>100</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>10</v>
+      </c>
       <c r="F9" s="3"/>
     </row>
     <row r="10" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -497,97 +420,113 @@
     <row r="11" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="6"/>
       <c r="B11" s="7" t="n">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="C11" s="7" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="D11" s="7" t="n">
-        <v>20000</v>
+        <v>500</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F11" s="3"/>
     </row>
     <row r="12" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="6"/>
       <c r="B12" s="7" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="C12" s="7" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="D12" s="7" t="n">
-        <v>20000</v>
+        <v>500</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F12" s="3"/>
     </row>
     <row r="13" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="6"/>
       <c r="B13" s="7" t="n">
-        <v>2000</v>
+        <v>500</v>
       </c>
       <c r="C13" s="7" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="D13" s="7" t="n">
-        <v>20000</v>
+        <v>500</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F13" s="3"/>
     </row>
     <row r="14" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="6"/>
       <c r="B14" s="7" t="n">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="C14" s="7" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="D14" s="7" t="n">
-        <v>20000</v>
+        <v>500</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F14" s="3"/>
     </row>
     <row r="15" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="6"/>
       <c r="B15" s="7" t="n">
-        <v>10000</v>
+        <v>2000</v>
       </c>
       <c r="C15" s="7" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="D15" s="7" t="n">
-        <v>20000</v>
+        <v>500</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F15" s="3"/>
     </row>
     <row r="16" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="6"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="8"/>
+      <c r="B16" s="7" t="n">
+        <v>5000</v>
+      </c>
+      <c r="C16" s="7" t="n">
+        <v>5000</v>
+      </c>
+      <c r="D16" s="7" t="n">
+        <v>500</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>16</v>
+      </c>
       <c r="F16" s="3"/>
     </row>
     <row r="17" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="6"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="8"/>
+      <c r="B17" s="7" t="n">
+        <v>10000</v>
+      </c>
+      <c r="C17" s="7" t="n">
+        <v>5000</v>
+      </c>
+      <c r="D17" s="7" t="n">
+        <v>500</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>17</v>
+      </c>
       <c r="F17" s="3"/>
     </row>
     <row r="18" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -601,90 +540,106 @@
     <row r="19" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="6"/>
       <c r="B19" s="7" t="n">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="C19" s="7" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="D19" s="7" t="n">
-        <v>50000</v>
+        <v>1000</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F19" s="3"/>
     </row>
     <row r="20" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="6"/>
       <c r="B20" s="7" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="C20" s="7" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="D20" s="7" t="n">
-        <v>50000</v>
+        <v>1000</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F20" s="3"/>
     </row>
     <row r="21" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="3"/>
       <c r="B21" s="7" t="n">
-        <v>2000</v>
+        <v>500</v>
       </c>
       <c r="C21" s="7" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="D21" s="7" t="n">
-        <v>50000</v>
+        <v>1000</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F21" s="3"/>
     </row>
     <row r="22" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B22" s="7" t="n">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="C22" s="7" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="D22" s="7" t="n">
-        <v>50000</v>
-      </c>
-      <c r="E22" s="8" t="n">
-        <v>11.143</v>
+        <v>1000</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B23" s="7" t="n">
+        <v>2000</v>
+      </c>
+      <c r="C23" s="7" t="n">
+        <v>5000</v>
+      </c>
+      <c r="D23" s="7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B24" s="7" t="n">
+        <v>5000</v>
+      </c>
+      <c r="C24" s="7" t="n">
+        <v>5000</v>
+      </c>
+      <c r="D24" s="7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B25" s="7" t="n">
         <v>10000</v>
       </c>
-      <c r="C23" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D23" s="7" t="n">
-        <v>50000</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="8"/>
-    </row>
-    <row r="25" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="8"/>
+      <c r="C25" s="7" t="n">
+        <v>5000</v>
+      </c>
+      <c r="D25" s="7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B26" s="7"/>
@@ -694,84 +649,98 @@
     </row>
     <row r="27" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B27" s="7" t="n">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="C27" s="7" t="n">
-        <v>2000</v>
+        <v>30000</v>
       </c>
       <c r="D27" s="7" t="n">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B28" s="7" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="C28" s="7" t="n">
-        <v>2000</v>
+        <v>30000</v>
       </c>
       <c r="D28" s="7" t="n">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B29" s="7" t="n">
-        <v>2000</v>
+        <v>500</v>
       </c>
       <c r="C29" s="7" t="n">
-        <v>2000</v>
+        <v>30000</v>
       </c>
       <c r="D29" s="7" t="n">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B30" s="7" t="n">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="C30" s="7" t="n">
-        <v>2000</v>
+        <v>30000</v>
       </c>
       <c r="D30" s="7" t="n">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B31" s="7" t="n">
+        <v>2000</v>
+      </c>
+      <c r="C31" s="7" t="n">
+        <v>30000</v>
+      </c>
+      <c r="D31" s="7" t="n">
+        <v>100</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B32" s="7" t="n">
+        <v>5000</v>
+      </c>
+      <c r="C32" s="7" t="n">
+        <v>30000</v>
+      </c>
+      <c r="D32" s="7" t="n">
+        <v>100</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B33" s="7" t="n">
         <v>10000</v>
       </c>
-      <c r="C31" s="7" t="n">
-        <v>2000</v>
-      </c>
-      <c r="D31" s="7" t="n">
-        <v>500</v>
-      </c>
-      <c r="E31" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B32" s="7"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="8"/>
-    </row>
-    <row r="33" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B33" s="7"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
+      <c r="C33" s="7" t="n">
+        <v>30000</v>
+      </c>
+      <c r="D33" s="7" t="n">
+        <v>100</v>
+      </c>
       <c r="E33" s="8"/>
     </row>
     <row r="34" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -782,73 +751,63 @@
     </row>
     <row r="35" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B35" s="7" t="n">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="C35" s="7" t="n">
-        <v>2000</v>
+        <v>30000</v>
       </c>
       <c r="D35" s="7" t="n">
-        <v>20000</v>
-      </c>
-      <c r="E35" s="8" t="s">
-        <v>23</v>
-      </c>
+        <v>500</v>
+      </c>
+      <c r="E35" s="8"/>
     </row>
     <row r="36" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B36" s="7" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="C36" s="7" t="n">
-        <v>2000</v>
+        <v>30000</v>
       </c>
       <c r="D36" s="7" t="n">
-        <v>20000</v>
-      </c>
-      <c r="E36" s="8" t="s">
-        <v>24</v>
-      </c>
+        <v>500</v>
+      </c>
+      <c r="E36" s="8"/>
     </row>
     <row r="37" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B37" s="7" t="n">
-        <v>2000</v>
+        <v>500</v>
       </c>
       <c r="C37" s="7" t="n">
-        <v>2000</v>
+        <v>30000</v>
       </c>
       <c r="D37" s="7" t="n">
-        <v>20000</v>
-      </c>
-      <c r="E37" s="8" t="s">
-        <v>25</v>
-      </c>
+        <v>500</v>
+      </c>
+      <c r="E37" s="8"/>
     </row>
     <row r="38" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B38" s="7" t="n">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="C38" s="7" t="n">
-        <v>2000</v>
+        <v>30000</v>
       </c>
       <c r="D38" s="7" t="n">
-        <v>20000</v>
-      </c>
-      <c r="E38" s="8" t="s">
-        <v>26</v>
-      </c>
+        <v>500</v>
+      </c>
+      <c r="E38" s="8"/>
     </row>
     <row r="39" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B39" s="7" t="n">
-        <v>10000</v>
+        <v>2000</v>
       </c>
       <c r="C39" s="7" t="n">
-        <v>2000</v>
+        <v>30000</v>
       </c>
       <c r="D39" s="7" t="n">
-        <v>20000</v>
-      </c>
-      <c r="E39" s="8" t="s">
-        <v>27</v>
-      </c>
+        <v>500</v>
+      </c>
+      <c r="E39" s="8"/>
     </row>
     <row r="40" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B40" s="7"/>
@@ -870,73 +829,63 @@
     </row>
     <row r="43" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B43" s="7" t="n">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="C43" s="7" t="n">
-        <v>2000</v>
+        <v>30000</v>
       </c>
       <c r="D43" s="7" t="n">
-        <v>50000</v>
-      </c>
-      <c r="E43" s="8" t="s">
-        <v>28</v>
-      </c>
+        <v>1000</v>
+      </c>
+      <c r="E43" s="8"/>
     </row>
     <row r="44" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B44" s="7" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="C44" s="7" t="n">
-        <v>2000</v>
+        <v>30000</v>
       </c>
       <c r="D44" s="7" t="n">
-        <v>50000</v>
-      </c>
-      <c r="E44" s="8" t="s">
-        <v>29</v>
-      </c>
+        <v>1000</v>
+      </c>
+      <c r="E44" s="8"/>
     </row>
     <row r="45" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B45" s="7" t="n">
-        <v>2000</v>
+        <v>500</v>
       </c>
       <c r="C45" s="7" t="n">
-        <v>2000</v>
+        <v>30000</v>
       </c>
       <c r="D45" s="7" t="n">
-        <v>50000</v>
-      </c>
-      <c r="E45" s="8" t="s">
-        <v>30</v>
-      </c>
+        <v>1000</v>
+      </c>
+      <c r="E45" s="8"/>
     </row>
     <row r="46" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B46" s="7" t="n">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="C46" s="7" t="n">
-        <v>2000</v>
+        <v>30000</v>
       </c>
       <c r="D46" s="7" t="n">
-        <v>50000</v>
-      </c>
-      <c r="E46" s="8" t="s">
-        <v>31</v>
-      </c>
+        <v>1000</v>
+      </c>
+      <c r="E46" s="8"/>
     </row>
     <row r="47" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B47" s="7" t="n">
-        <v>10000</v>
+        <v>2000</v>
       </c>
       <c r="C47" s="7" t="n">
-        <v>2000</v>
+        <v>30000</v>
       </c>
       <c r="D47" s="7" t="n">
-        <v>50000</v>
-      </c>
-      <c r="E47" s="8" t="s">
-        <v>32</v>
-      </c>
+        <v>1000</v>
+      </c>
+      <c r="E47" s="8"/>
     </row>
     <row r="48" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B48" s="7"/>
@@ -958,73 +907,63 @@
     </row>
     <row r="51" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B51" s="7" t="n">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="C51" s="7" t="n">
-        <v>5000</v>
+        <v>50000</v>
       </c>
       <c r="D51" s="7" t="n">
-        <v>500</v>
-      </c>
-      <c r="E51" s="8" t="s">
-        <v>33</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="E51" s="8"/>
     </row>
     <row r="52" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B52" s="7" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="C52" s="7" t="n">
-        <v>5000</v>
+        <v>50000</v>
       </c>
       <c r="D52" s="7" t="n">
-        <v>500</v>
-      </c>
-      <c r="E52" s="8" t="s">
-        <v>34</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="E52" s="8"/>
     </row>
     <row r="53" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B53" s="7" t="n">
-        <v>2000</v>
+        <v>500</v>
       </c>
       <c r="C53" s="7" t="n">
-        <v>5000</v>
+        <v>50000</v>
       </c>
       <c r="D53" s="7" t="n">
-        <v>500</v>
-      </c>
-      <c r="E53" s="8" t="s">
-        <v>35</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="E53" s="8"/>
     </row>
     <row r="54" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B54" s="7" t="n">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="C54" s="7" t="n">
-        <v>5000</v>
+        <v>50000</v>
       </c>
       <c r="D54" s="7" t="n">
-        <v>500</v>
-      </c>
-      <c r="E54" s="8" t="s">
-        <v>36</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="E54" s="8"/>
     </row>
     <row r="55" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B55" s="7" t="n">
-        <v>10000</v>
+        <v>2000</v>
       </c>
       <c r="C55" s="7" t="n">
-        <v>5000</v>
+        <v>50000</v>
       </c>
       <c r="D55" s="7" t="n">
-        <v>500</v>
-      </c>
-      <c r="E55" s="8" t="s">
-        <v>37</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="E55" s="8"/>
     </row>
     <row r="56" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B56" s="7"/>
@@ -1046,73 +985,63 @@
     </row>
     <row r="59" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B59" s="7" t="n">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="C59" s="7" t="n">
-        <v>5000</v>
+        <v>50000</v>
       </c>
       <c r="D59" s="7" t="n">
-        <v>20000</v>
-      </c>
-      <c r="E59" s="8" t="s">
-        <v>38</v>
-      </c>
+        <v>500</v>
+      </c>
+      <c r="E59" s="8"/>
     </row>
     <row r="60" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B60" s="7" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="C60" s="7" t="n">
-        <v>5000</v>
+        <v>50000</v>
       </c>
       <c r="D60" s="7" t="n">
-        <v>20000</v>
-      </c>
-      <c r="E60" s="8" t="s">
-        <v>39</v>
-      </c>
+        <v>500</v>
+      </c>
+      <c r="E60" s="8"/>
     </row>
     <row r="61" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B61" s="7" t="n">
-        <v>2000</v>
+        <v>500</v>
       </c>
       <c r="C61" s="7" t="n">
-        <v>5000</v>
+        <v>50000</v>
       </c>
       <c r="D61" s="7" t="n">
-        <v>20000</v>
-      </c>
-      <c r="E61" s="8" t="s">
-        <v>40</v>
-      </c>
+        <v>500</v>
+      </c>
+      <c r="E61" s="8"/>
     </row>
     <row r="62" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B62" s="7" t="n">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="C62" s="7" t="n">
-        <v>5000</v>
+        <v>50000</v>
       </c>
       <c r="D62" s="7" t="n">
-        <v>20000</v>
-      </c>
-      <c r="E62" s="8" t="s">
-        <v>41</v>
-      </c>
+        <v>500</v>
+      </c>
+      <c r="E62" s="8"/>
     </row>
     <row r="63" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B63" s="7" t="n">
-        <v>10000</v>
+        <v>2000</v>
       </c>
       <c r="C63" s="7" t="n">
-        <v>5000</v>
+        <v>50000</v>
       </c>
       <c r="D63" s="7" t="n">
-        <v>20000</v>
-      </c>
-      <c r="E63" s="8" t="s">
-        <v>42</v>
-      </c>
+        <v>500</v>
+      </c>
+      <c r="E63" s="8"/>
     </row>
     <row r="64" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B64" s="7"/>
@@ -1134,69 +1063,61 @@
     </row>
     <row r="67" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B67" s="7" t="n">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="C67" s="7" t="n">
-        <v>5000</v>
+        <v>50000</v>
       </c>
       <c r="D67" s="7" t="n">
-        <v>50000</v>
-      </c>
-      <c r="E67" s="8" t="s">
-        <v>43</v>
-      </c>
+        <v>1000</v>
+      </c>
+      <c r="E67" s="8"/>
     </row>
     <row r="68" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B68" s="7" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="C68" s="7" t="n">
-        <v>5000</v>
+        <v>50000</v>
       </c>
       <c r="D68" s="7" t="n">
-        <v>50000</v>
-      </c>
-      <c r="E68" s="8" t="s">
-        <v>44</v>
-      </c>
+        <v>1000</v>
+      </c>
+      <c r="E68" s="8"/>
     </row>
     <row r="69" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B69" s="7" t="n">
-        <v>2000</v>
+        <v>500</v>
       </c>
       <c r="C69" s="7" t="n">
-        <v>5000</v>
+        <v>50000</v>
       </c>
       <c r="D69" s="7" t="n">
-        <v>50000</v>
-      </c>
-      <c r="E69" s="8" t="s">
-        <v>45</v>
-      </c>
+        <v>1000</v>
+      </c>
+      <c r="E69" s="8"/>
     </row>
     <row r="70" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B70" s="7" t="n">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="C70" s="7" t="n">
-        <v>5000</v>
+        <v>50000</v>
       </c>
       <c r="D70" s="7" t="n">
-        <v>50000</v>
-      </c>
-      <c r="E70" s="8" t="s">
-        <v>46</v>
-      </c>
+        <v>1000</v>
+      </c>
+      <c r="E70" s="8"/>
     </row>
     <row r="71" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B71" s="7" t="n">
-        <v>10000</v>
+        <v>2000</v>
       </c>
       <c r="C71" s="7" t="n">
-        <v>5000</v>
+        <v>50000</v>
       </c>
       <c r="D71" s="7" t="n">
-        <v>50000</v>
+        <v>1000</v>
       </c>
       <c r="E71" s="8"/>
     </row>
@@ -1219,74 +1140,34 @@
       <c r="E74" s="8"/>
     </row>
     <row r="75" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B75" s="7" t="n">
-        <v>500</v>
-      </c>
-      <c r="C75" s="7" t="n">
-        <v>10000</v>
-      </c>
-      <c r="D75" s="7" t="n">
-        <v>500</v>
-      </c>
-      <c r="E75" s="8" t="s">
-        <v>19</v>
-      </c>
+      <c r="B75" s="7"/>
+      <c r="C75" s="7"/>
+      <c r="D75" s="7"/>
+      <c r="E75" s="8"/>
     </row>
     <row r="76" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B76" s="7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="C76" s="7" t="n">
-        <v>10000</v>
-      </c>
-      <c r="D76" s="7" t="n">
-        <v>500</v>
-      </c>
-      <c r="E76" s="8" t="s">
-        <v>47</v>
-      </c>
+      <c r="B76" s="7"/>
+      <c r="C76" s="7"/>
+      <c r="D76" s="7"/>
+      <c r="E76" s="8"/>
     </row>
     <row r="77" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B77" s="7" t="n">
-        <v>2000</v>
-      </c>
-      <c r="C77" s="7" t="n">
-        <v>10000</v>
-      </c>
-      <c r="D77" s="7" t="n">
-        <v>500</v>
-      </c>
-      <c r="E77" s="8" t="s">
-        <v>35</v>
-      </c>
+      <c r="B77" s="7"/>
+      <c r="C77" s="7"/>
+      <c r="D77" s="7"/>
+      <c r="E77" s="8"/>
     </row>
     <row r="78" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B78" s="7" t="n">
-        <v>5000</v>
-      </c>
-      <c r="C78" s="7" t="n">
-        <v>10000</v>
-      </c>
-      <c r="D78" s="7" t="n">
-        <v>500</v>
-      </c>
-      <c r="E78" s="8" t="s">
-        <v>48</v>
-      </c>
+      <c r="B78" s="7"/>
+      <c r="C78" s="7"/>
+      <c r="D78" s="7"/>
+      <c r="E78" s="8"/>
     </row>
     <row r="79" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B79" s="7" t="n">
-        <v>10000</v>
-      </c>
-      <c r="C79" s="7" t="n">
-        <v>10000</v>
-      </c>
-      <c r="D79" s="7" t="n">
-        <v>500</v>
-      </c>
-      <c r="E79" s="8" t="s">
-        <v>49</v>
-      </c>
+      <c r="B79" s="7"/>
+      <c r="C79" s="7"/>
+      <c r="D79" s="7"/>
+      <c r="E79" s="8"/>
     </row>
     <row r="80" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B80" s="7"/>
@@ -1307,74 +1188,34 @@
       <c r="E82" s="8"/>
     </row>
     <row r="83" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B83" s="7" t="n">
-        <v>500</v>
-      </c>
-      <c r="C83" s="7" t="n">
-        <v>10000</v>
-      </c>
-      <c r="D83" s="7" t="n">
-        <v>20000</v>
-      </c>
-      <c r="E83" s="8" t="s">
-        <v>50</v>
-      </c>
+      <c r="B83" s="7"/>
+      <c r="C83" s="7"/>
+      <c r="D83" s="7"/>
+      <c r="E83" s="8"/>
     </row>
     <row r="84" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B84" s="7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="C84" s="7" t="n">
-        <v>10000</v>
-      </c>
-      <c r="D84" s="7" t="n">
-        <v>20000</v>
-      </c>
-      <c r="E84" s="8" t="s">
-        <v>51</v>
-      </c>
+      <c r="B84" s="7"/>
+      <c r="C84" s="7"/>
+      <c r="D84" s="7"/>
+      <c r="E84" s="8"/>
     </row>
     <row r="85" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B85" s="7" t="n">
-        <v>2000</v>
-      </c>
-      <c r="C85" s="7" t="n">
-        <v>10000</v>
-      </c>
-      <c r="D85" s="7" t="n">
-        <v>20000</v>
-      </c>
-      <c r="E85" s="8" t="s">
-        <v>52</v>
-      </c>
+      <c r="B85" s="7"/>
+      <c r="C85" s="7"/>
+      <c r="D85" s="7"/>
+      <c r="E85" s="8"/>
     </row>
     <row r="86" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B86" s="7" t="n">
-        <v>5000</v>
-      </c>
-      <c r="C86" s="7" t="n">
-        <v>10000</v>
-      </c>
-      <c r="D86" s="7" t="n">
-        <v>20000</v>
-      </c>
-      <c r="E86" s="8" t="s">
-        <v>53</v>
-      </c>
+      <c r="B86" s="7"/>
+      <c r="C86" s="7"/>
+      <c r="D86" s="7"/>
+      <c r="E86" s="8"/>
     </row>
     <row r="87" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B87" s="7" t="n">
-        <v>10000</v>
-      </c>
-      <c r="C87" s="7" t="n">
-        <v>10000</v>
-      </c>
-      <c r="D87" s="7" t="n">
-        <v>20000</v>
-      </c>
-      <c r="E87" s="8" t="s">
-        <v>54</v>
-      </c>
+      <c r="B87" s="7"/>
+      <c r="C87" s="7"/>
+      <c r="D87" s="7"/>
+      <c r="E87" s="8"/>
     </row>
     <row r="88" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B88" s="7"/>
@@ -1395,71 +1236,33 @@
       <c r="E90" s="8"/>
     </row>
     <row r="91" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B91" s="7" t="n">
-        <v>500</v>
-      </c>
-      <c r="C91" s="7" t="n">
-        <v>10000</v>
-      </c>
-      <c r="D91" s="7" t="n">
-        <v>50000</v>
-      </c>
-      <c r="E91" s="8" t="s">
-        <v>55</v>
-      </c>
+      <c r="B91" s="7"/>
+      <c r="C91" s="7"/>
+      <c r="D91" s="7"/>
+      <c r="E91" s="8"/>
     </row>
     <row r="92" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B92" s="7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="C92" s="7" t="n">
-        <v>10000</v>
-      </c>
-      <c r="D92" s="7" t="n">
-        <v>50000</v>
-      </c>
-      <c r="E92" s="8" t="s">
-        <v>56</v>
-      </c>
+      <c r="B92" s="7"/>
+      <c r="C92" s="7"/>
+      <c r="D92" s="7"/>
+      <c r="E92" s="8"/>
     </row>
     <row r="93" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B93" s="7" t="n">
-        <v>2000</v>
-      </c>
-      <c r="C93" s="7" t="n">
-        <v>10000</v>
-      </c>
-      <c r="D93" s="7" t="n">
-        <v>50000</v>
-      </c>
-      <c r="E93" s="8" t="s">
-        <v>57</v>
-      </c>
+      <c r="B93" s="7"/>
+      <c r="C93" s="7"/>
+      <c r="D93" s="7"/>
+      <c r="E93" s="8"/>
     </row>
     <row r="94" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B94" s="7" t="n">
-        <v>5000</v>
-      </c>
-      <c r="C94" s="7" t="n">
-        <v>10000</v>
-      </c>
-      <c r="D94" s="7" t="n">
-        <v>50000</v>
-      </c>
-      <c r="E94" s="8" t="s">
-        <v>58</v>
-      </c>
+      <c r="B94" s="7"/>
+      <c r="C94" s="7"/>
+      <c r="D94" s="7"/>
+      <c r="E94" s="8"/>
     </row>
     <row r="95" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B95" s="7" t="n">
-        <v>10000</v>
-      </c>
-      <c r="C95" s="7" t="n">
-        <v>10000</v>
-      </c>
-      <c r="D95" s="7" t="n">
-        <v>50000</v>
-      </c>
+      <c r="B95" s="7"/>
+      <c r="C95" s="7"/>
+      <c r="D95" s="7"/>
       <c r="E95" s="8"/>
     </row>
     <row r="96" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">

--- a/Documentation/TestResults.xlsx
+++ b/Documentation/TestResults.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="60">
   <si>
     <t xml:space="preserve">Waypoints</t>
   </si>
@@ -104,6 +104,102 @@
   </si>
   <si>
     <t xml:space="preserve">0.392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.120</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.150</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.520</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.040</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.310</t>
   </si>
 </sst>
 </file>
@@ -263,8 +359,8 @@
   </sheetPr>
   <dimension ref="A1:F98"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E33" activeCellId="0" sqref="E33"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A64" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D76" activeCellId="0" sqref="D76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -741,7 +837,9 @@
       <c r="D33" s="7" t="n">
         <v>100</v>
       </c>
-      <c r="E33" s="8"/>
+      <c r="E33" s="8" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B34" s="7"/>
@@ -759,7 +857,9 @@
       <c r="D35" s="7" t="n">
         <v>500</v>
       </c>
-      <c r="E35" s="8"/>
+      <c r="E35" s="8" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B36" s="7" t="n">
@@ -771,7 +871,9 @@
       <c r="D36" s="7" t="n">
         <v>500</v>
       </c>
-      <c r="E36" s="8"/>
+      <c r="E36" s="8" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B37" s="7" t="n">
@@ -783,7 +885,9 @@
       <c r="D37" s="7" t="n">
         <v>500</v>
       </c>
-      <c r="E37" s="8"/>
+      <c r="E37" s="8" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B38" s="7" t="n">
@@ -795,7 +899,9 @@
       <c r="D38" s="7" t="n">
         <v>500</v>
       </c>
-      <c r="E38" s="8"/>
+      <c r="E38" s="8" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B39" s="7" t="n">
@@ -807,19 +913,37 @@
       <c r="D39" s="7" t="n">
         <v>500</v>
       </c>
-      <c r="E39" s="8"/>
+      <c r="E39" s="8" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B40" s="7"/>
-      <c r="C40" s="7"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="8"/>
+      <c r="B40" s="7" t="n">
+        <v>5000</v>
+      </c>
+      <c r="C40" s="7" t="n">
+        <v>30000</v>
+      </c>
+      <c r="D40" s="7" t="n">
+        <v>500</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B41" s="7"/>
-      <c r="C41" s="7"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="8"/>
+      <c r="B41" s="7" t="n">
+        <v>10000</v>
+      </c>
+      <c r="C41" s="7" t="n">
+        <v>30000</v>
+      </c>
+      <c r="D41" s="7" t="n">
+        <v>500</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="42" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B42" s="7"/>
@@ -837,7 +961,9 @@
       <c r="D43" s="7" t="n">
         <v>1000</v>
       </c>
-      <c r="E43" s="8"/>
+      <c r="E43" s="8" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="44" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B44" s="7" t="n">
@@ -849,7 +975,9 @@
       <c r="D44" s="7" t="n">
         <v>1000</v>
       </c>
-      <c r="E44" s="8"/>
+      <c r="E44" s="8" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="45" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B45" s="7" t="n">
@@ -861,7 +989,9 @@
       <c r="D45" s="7" t="n">
         <v>1000</v>
       </c>
-      <c r="E45" s="8"/>
+      <c r="E45" s="8" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="46" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B46" s="7" t="n">
@@ -873,7 +1003,9 @@
       <c r="D46" s="7" t="n">
         <v>1000</v>
       </c>
-      <c r="E46" s="8"/>
+      <c r="E46" s="8" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="47" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B47" s="7" t="n">
@@ -885,19 +1017,37 @@
       <c r="D47" s="7" t="n">
         <v>1000</v>
       </c>
-      <c r="E47" s="8"/>
+      <c r="E47" s="8" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="48" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B48" s="7"/>
-      <c r="C48" s="7"/>
-      <c r="D48" s="7"/>
-      <c r="E48" s="8"/>
+      <c r="B48" s="7" t="n">
+        <v>5000</v>
+      </c>
+      <c r="C48" s="7" t="n">
+        <v>30000</v>
+      </c>
+      <c r="D48" s="7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E48" s="8" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="49" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B49" s="7"/>
-      <c r="C49" s="7"/>
-      <c r="D49" s="7"/>
-      <c r="E49" s="8"/>
+      <c r="B49" s="7" t="n">
+        <v>10000</v>
+      </c>
+      <c r="C49" s="7" t="n">
+        <v>30000</v>
+      </c>
+      <c r="D49" s="7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E49" s="8" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="50" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B50" s="7"/>
@@ -915,7 +1065,9 @@
       <c r="D51" s="7" t="n">
         <v>100</v>
       </c>
-      <c r="E51" s="8"/>
+      <c r="E51" s="8" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="52" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B52" s="7" t="n">
@@ -927,7 +1079,9 @@
       <c r="D52" s="7" t="n">
         <v>100</v>
       </c>
-      <c r="E52" s="8"/>
+      <c r="E52" s="8" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="53" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B53" s="7" t="n">
@@ -939,7 +1093,9 @@
       <c r="D53" s="7" t="n">
         <v>100</v>
       </c>
-      <c r="E53" s="8"/>
+      <c r="E53" s="8" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="54" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B54" s="7" t="n">
@@ -951,7 +1107,9 @@
       <c r="D54" s="7" t="n">
         <v>100</v>
       </c>
-      <c r="E54" s="8"/>
+      <c r="E54" s="8" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="55" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B55" s="7" t="n">
@@ -963,19 +1121,37 @@
       <c r="D55" s="7" t="n">
         <v>100</v>
       </c>
-      <c r="E55" s="8"/>
+      <c r="E55" s="8" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="56" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B56" s="7"/>
-      <c r="C56" s="7"/>
-      <c r="D56" s="7"/>
-      <c r="E56" s="8"/>
+      <c r="B56" s="7" t="n">
+        <v>5000</v>
+      </c>
+      <c r="C56" s="7" t="n">
+        <v>50000</v>
+      </c>
+      <c r="D56" s="7" t="n">
+        <v>100</v>
+      </c>
+      <c r="E56" s="8" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="57" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B57" s="7"/>
-      <c r="C57" s="7"/>
-      <c r="D57" s="7"/>
-      <c r="E57" s="8"/>
+      <c r="B57" s="7" t="n">
+        <v>10000</v>
+      </c>
+      <c r="C57" s="7" t="n">
+        <v>50000</v>
+      </c>
+      <c r="D57" s="7" t="n">
+        <v>100</v>
+      </c>
+      <c r="E57" s="8" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="58" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B58" s="7"/>
@@ -993,7 +1169,9 @@
       <c r="D59" s="7" t="n">
         <v>500</v>
       </c>
-      <c r="E59" s="8"/>
+      <c r="E59" s="8" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="60" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B60" s="7" t="n">
@@ -1005,7 +1183,9 @@
       <c r="D60" s="7" t="n">
         <v>500</v>
       </c>
-      <c r="E60" s="8"/>
+      <c r="E60" s="8" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="61" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B61" s="7" t="n">
@@ -1017,7 +1197,9 @@
       <c r="D61" s="7" t="n">
         <v>500</v>
       </c>
-      <c r="E61" s="8"/>
+      <c r="E61" s="8" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="62" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B62" s="7" t="n">
@@ -1029,7 +1211,9 @@
       <c r="D62" s="7" t="n">
         <v>500</v>
       </c>
-      <c r="E62" s="8"/>
+      <c r="E62" s="8" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="63" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B63" s="7" t="n">
@@ -1041,19 +1225,37 @@
       <c r="D63" s="7" t="n">
         <v>500</v>
       </c>
-      <c r="E63" s="8"/>
+      <c r="E63" s="8" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="64" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B64" s="7"/>
-      <c r="C64" s="7"/>
-      <c r="D64" s="7"/>
-      <c r="E64" s="8"/>
+      <c r="B64" s="7" t="n">
+        <v>5000</v>
+      </c>
+      <c r="C64" s="7" t="n">
+        <v>50000</v>
+      </c>
+      <c r="D64" s="7" t="n">
+        <v>500</v>
+      </c>
+      <c r="E64" s="8" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="65" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B65" s="7"/>
-      <c r="C65" s="7"/>
-      <c r="D65" s="7"/>
-      <c r="E65" s="8"/>
+      <c r="B65" s="7" t="n">
+        <v>10000</v>
+      </c>
+      <c r="C65" s="7" t="n">
+        <v>50000</v>
+      </c>
+      <c r="D65" s="7" t="n">
+        <v>500</v>
+      </c>
+      <c r="E65" s="8" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="66" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B66" s="7"/>
@@ -1071,7 +1273,9 @@
       <c r="D67" s="7" t="n">
         <v>1000</v>
       </c>
-      <c r="E67" s="8"/>
+      <c r="E67" s="8" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="68" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B68" s="7" t="n">
@@ -1083,7 +1287,9 @@
       <c r="D68" s="7" t="n">
         <v>1000</v>
       </c>
-      <c r="E68" s="8"/>
+      <c r="E68" s="8" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="69" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B69" s="7" t="n">
@@ -1095,7 +1301,9 @@
       <c r="D69" s="7" t="n">
         <v>1000</v>
       </c>
-      <c r="E69" s="8"/>
+      <c r="E69" s="8" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="70" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B70" s="7" t="n">
@@ -1107,7 +1315,9 @@
       <c r="D70" s="7" t="n">
         <v>1000</v>
       </c>
-      <c r="E70" s="8"/>
+      <c r="E70" s="8" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="71" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B71" s="7" t="n">
@@ -1119,19 +1329,37 @@
       <c r="D71" s="7" t="n">
         <v>1000</v>
       </c>
-      <c r="E71" s="8"/>
+      <c r="E71" s="8" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="72" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B72" s="7"/>
-      <c r="C72" s="7"/>
-      <c r="D72" s="7"/>
-      <c r="E72" s="8"/>
+      <c r="B72" s="7" t="n">
+        <v>5000</v>
+      </c>
+      <c r="C72" s="7" t="n">
+        <v>50000</v>
+      </c>
+      <c r="D72" s="7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E72" s="8" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="73" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B73" s="7"/>
-      <c r="C73" s="7"/>
-      <c r="D73" s="7"/>
-      <c r="E73" s="8"/>
+      <c r="B73" s="7" t="n">
+        <v>10000</v>
+      </c>
+      <c r="C73" s="7" t="n">
+        <v>50000</v>
+      </c>
+      <c r="D73" s="7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E73" s="8" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="74" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B74" s="7"/>

--- a/Documentation/TestResults.xlsx
+++ b/Documentation/TestResults.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\João Portugal\Desktop\Tese\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{932F4013-1548-4A36-819C-F25F2815C82C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DE3AD51-7643-4D10-8321-B1F64C485A66}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="68">
   <si>
     <t>Waypoints</t>
   </si>
@@ -210,7 +210,25 @@
     <t>Labeling Algorithm</t>
   </si>
   <si>
-    <t>Labeling Algorithm + Backtrack</t>
+    <t xml:space="preserve"> Backtrack Technique</t>
+  </si>
+  <si>
+    <t>0.502</t>
+  </si>
+  <si>
+    <t>0.102</t>
+  </si>
+  <si>
+    <t>0.326s</t>
+  </si>
+  <si>
+    <t>0.957</t>
+  </si>
+  <si>
+    <t>61.305s</t>
+  </si>
+  <si>
+    <t>183.015s</t>
   </si>
 </sst>
 </file>
@@ -638,8 +656,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S16" sqref="S16"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -683,12 +701,8 @@
       <c r="P2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="Q2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="R2" s="5" t="s">
-        <v>2</v>
-      </c>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
       <c r="S2" s="5" t="s">
         <v>3</v>
       </c>
@@ -712,13 +726,11 @@
       <c r="P3" s="7">
         <v>100</v>
       </c>
-      <c r="Q3" s="7">
-        <v>5000</v>
-      </c>
-      <c r="R3" s="7">
-        <v>100</v>
-      </c>
-      <c r="S3" s="8"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="8" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="4" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
@@ -739,13 +751,11 @@
       <c r="P4" s="7">
         <v>200</v>
       </c>
-      <c r="Q4" s="7">
-        <v>5000</v>
-      </c>
-      <c r="R4" s="7">
-        <v>100</v>
-      </c>
-      <c r="S4" s="8"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="8" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="5" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
@@ -766,13 +776,11 @@
       <c r="P5" s="7">
         <v>500</v>
       </c>
-      <c r="Q5" s="7">
-        <v>5000</v>
-      </c>
-      <c r="R5" s="7">
-        <v>100</v>
-      </c>
-      <c r="S5" s="8"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="8" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="6" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
@@ -793,13 +801,11 @@
       <c r="P6" s="7">
         <v>1000</v>
       </c>
-      <c r="Q6" s="7">
-        <v>5000</v>
-      </c>
-      <c r="R6" s="7">
-        <v>100</v>
-      </c>
-      <c r="S6" s="8"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="8" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="7" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
@@ -820,13 +826,11 @@
       <c r="P7" s="7">
         <v>2000</v>
       </c>
-      <c r="Q7" s="7">
-        <v>5000</v>
-      </c>
-      <c r="R7" s="7">
-        <v>100</v>
-      </c>
-      <c r="S7" s="8"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
+      <c r="S7" s="8" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="8" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
@@ -847,13 +851,11 @@
       <c r="P8" s="7">
         <v>5000</v>
       </c>
-      <c r="Q8" s="7">
-        <v>5000</v>
-      </c>
-      <c r="R8" s="7">
-        <v>100</v>
-      </c>
-      <c r="S8" s="8"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="8" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="9" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
@@ -871,15 +873,9 @@
       </c>
       <c r="F9" s="3"/>
       <c r="O9" s="3"/>
-      <c r="P9" s="7">
-        <v>10000</v>
-      </c>
-      <c r="Q9" s="7">
-        <v>5000</v>
-      </c>
-      <c r="R9" s="7">
-        <v>100</v>
-      </c>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7"/>
       <c r="S9" s="8"/>
     </row>
     <row r="10" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -911,15 +907,9 @@
       </c>
       <c r="F11" s="3"/>
       <c r="O11" s="3"/>
-      <c r="P11" s="7">
-        <v>100</v>
-      </c>
-      <c r="Q11" s="7">
-        <v>5000</v>
-      </c>
-      <c r="R11" s="7">
-        <v>500</v>
-      </c>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="7"/>
       <c r="S11" s="8"/>
     </row>
     <row r="12" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -938,15 +928,9 @@
       </c>
       <c r="F12" s="3"/>
       <c r="O12" s="3"/>
-      <c r="P12" s="7">
-        <v>200</v>
-      </c>
-      <c r="Q12" s="7">
-        <v>5000</v>
-      </c>
-      <c r="R12" s="7">
-        <v>500</v>
-      </c>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="7"/>
       <c r="S12" s="8"/>
     </row>
     <row r="13" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -965,15 +949,9 @@
       </c>
       <c r="F13" s="3"/>
       <c r="O13" s="3"/>
-      <c r="P13" s="7">
-        <v>500</v>
-      </c>
-      <c r="Q13" s="7">
-        <v>5000</v>
-      </c>
-      <c r="R13" s="7">
-        <v>500</v>
-      </c>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="7"/>
       <c r="S13" s="8"/>
     </row>
     <row r="14" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -992,15 +970,9 @@
       </c>
       <c r="F14" s="3"/>
       <c r="O14" s="3"/>
-      <c r="P14" s="7">
-        <v>1000</v>
-      </c>
-      <c r="Q14" s="7">
-        <v>5000</v>
-      </c>
-      <c r="R14" s="7">
-        <v>500</v>
-      </c>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="7"/>
       <c r="S14" s="8"/>
     </row>
     <row r="15" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1019,15 +991,9 @@
       </c>
       <c r="F15" s="3"/>
       <c r="O15" s="3"/>
-      <c r="P15" s="7">
-        <v>2000</v>
-      </c>
-      <c r="Q15" s="7">
-        <v>5000</v>
-      </c>
-      <c r="R15" s="7">
-        <v>500</v>
-      </c>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="7"/>
       <c r="S15" s="8"/>
     </row>
     <row r="16" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1046,15 +1012,9 @@
       </c>
       <c r="F16" s="3"/>
       <c r="O16" s="3"/>
-      <c r="P16" s="7">
-        <v>5000</v>
-      </c>
-      <c r="Q16" s="7">
-        <v>5000</v>
-      </c>
-      <c r="R16" s="7">
-        <v>500</v>
-      </c>
+      <c r="P16" s="7"/>
+      <c r="Q16" s="7"/>
+      <c r="R16" s="7"/>
       <c r="S16" s="8"/>
     </row>
     <row r="17" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1073,15 +1033,9 @@
       </c>
       <c r="F17" s="3"/>
       <c r="O17" s="3"/>
-      <c r="P17" s="7">
-        <v>10000</v>
-      </c>
-      <c r="Q17" s="7">
-        <v>5000</v>
-      </c>
-      <c r="R17" s="7">
-        <v>500</v>
-      </c>
+      <c r="P17" s="7"/>
+      <c r="Q17" s="7"/>
+      <c r="R17" s="7"/>
       <c r="S17" s="8"/>
     </row>
     <row r="18" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1113,15 +1067,9 @@
       </c>
       <c r="F19" s="3"/>
       <c r="O19" s="3"/>
-      <c r="P19" s="7">
-        <v>100</v>
-      </c>
-      <c r="Q19" s="7">
-        <v>5000</v>
-      </c>
-      <c r="R19" s="7">
-        <v>1000</v>
-      </c>
+      <c r="P19" s="7"/>
+      <c r="Q19" s="7"/>
+      <c r="R19" s="7"/>
       <c r="S19" s="8"/>
     </row>
     <row r="20" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1140,15 +1088,9 @@
       </c>
       <c r="F20" s="3"/>
       <c r="O20" s="3"/>
-      <c r="P20" s="7">
-        <v>200</v>
-      </c>
-      <c r="Q20" s="7">
-        <v>5000</v>
-      </c>
-      <c r="R20" s="7">
-        <v>1000</v>
-      </c>
+      <c r="P20" s="7"/>
+      <c r="Q20" s="7"/>
+      <c r="R20" s="7"/>
       <c r="S20" s="8"/>
     </row>
     <row r="21" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1167,15 +1109,9 @@
       </c>
       <c r="F21" s="3"/>
       <c r="O21" s="3"/>
-      <c r="P21" s="7">
-        <v>500</v>
-      </c>
-      <c r="Q21" s="7">
-        <v>5000</v>
-      </c>
-      <c r="R21" s="7">
-        <v>1000</v>
-      </c>
+      <c r="P21" s="7"/>
+      <c r="Q21" s="7"/>
+      <c r="R21" s="7"/>
       <c r="S21" s="8"/>
     </row>
     <row r="22" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1191,15 +1127,9 @@
       <c r="E22" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="P22" s="7">
-        <v>1000</v>
-      </c>
-      <c r="Q22" s="7">
-        <v>5000</v>
-      </c>
-      <c r="R22" s="7">
-        <v>1000</v>
-      </c>
+      <c r="P22" s="7"/>
+      <c r="Q22" s="7"/>
+      <c r="R22" s="7"/>
       <c r="S22" s="8"/>
     </row>
     <row r="23" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1215,15 +1145,9 @@
       <c r="E23" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="P23" s="7">
-        <v>2000</v>
-      </c>
-      <c r="Q23" s="7">
-        <v>5000</v>
-      </c>
-      <c r="R23" s="7">
-        <v>1000</v>
-      </c>
+      <c r="P23" s="7"/>
+      <c r="Q23" s="7"/>
+      <c r="R23" s="7"/>
       <c r="S23" s="8"/>
     </row>
     <row r="24" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1239,15 +1163,9 @@
       <c r="E24" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="P24" s="7">
-        <v>5000</v>
-      </c>
-      <c r="Q24" s="7">
-        <v>5000</v>
-      </c>
-      <c r="R24" s="7">
-        <v>1000</v>
-      </c>
+      <c r="P24" s="7"/>
+      <c r="Q24" s="7"/>
+      <c r="R24" s="7"/>
       <c r="S24" s="8"/>
     </row>
     <row r="25" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1263,15 +1181,9 @@
       <c r="E25" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="P25" s="7">
-        <v>10000</v>
-      </c>
-      <c r="Q25" s="7">
-        <v>5000</v>
-      </c>
-      <c r="R25" s="7">
-        <v>1000</v>
-      </c>
+      <c r="P25" s="7"/>
+      <c r="Q25" s="7"/>
+      <c r="R25" s="7"/>
       <c r="S25" s="8"/>
     </row>
     <row r="26" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1297,15 +1209,9 @@
       <c r="E27" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="P27" s="7">
-        <v>100</v>
-      </c>
-      <c r="Q27" s="7">
-        <v>30000</v>
-      </c>
-      <c r="R27" s="7">
-        <v>100</v>
-      </c>
+      <c r="P27" s="7"/>
+      <c r="Q27" s="7"/>
+      <c r="R27" s="7"/>
       <c r="S27" s="8"/>
     </row>
     <row r="28" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1321,15 +1227,9 @@
       <c r="E28" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="P28" s="7">
-        <v>200</v>
-      </c>
-      <c r="Q28" s="7">
-        <v>30000</v>
-      </c>
-      <c r="R28" s="7">
-        <v>100</v>
-      </c>
+      <c r="P28" s="7"/>
+      <c r="Q28" s="7"/>
+      <c r="R28" s="7"/>
       <c r="S28" s="8"/>
     </row>
     <row r="29" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1345,15 +1245,9 @@
       <c r="E29" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="P29" s="7">
-        <v>500</v>
-      </c>
-      <c r="Q29" s="7">
-        <v>30000</v>
-      </c>
-      <c r="R29" s="7">
-        <v>100</v>
-      </c>
+      <c r="P29" s="7"/>
+      <c r="Q29" s="7"/>
+      <c r="R29" s="7"/>
       <c r="S29" s="8"/>
     </row>
     <row r="30" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1369,15 +1263,9 @@
       <c r="E30" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="P30" s="7">
-        <v>1000</v>
-      </c>
-      <c r="Q30" s="7">
-        <v>30000</v>
-      </c>
-      <c r="R30" s="7">
-        <v>100</v>
-      </c>
+      <c r="P30" s="7"/>
+      <c r="Q30" s="7"/>
+      <c r="R30" s="7"/>
       <c r="S30" s="8"/>
     </row>
     <row r="31" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1393,15 +1281,9 @@
       <c r="E31" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="P31" s="7">
-        <v>2000</v>
-      </c>
-      <c r="Q31" s="7">
-        <v>30000</v>
-      </c>
-      <c r="R31" s="7">
-        <v>100</v>
-      </c>
+      <c r="P31" s="7"/>
+      <c r="Q31" s="7"/>
+      <c r="R31" s="7"/>
       <c r="S31" s="8"/>
     </row>
     <row r="32" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1417,15 +1299,9 @@
       <c r="E32" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="P32" s="7">
-        <v>5000</v>
-      </c>
-      <c r="Q32" s="7">
-        <v>30000</v>
-      </c>
-      <c r="R32" s="7">
-        <v>100</v>
-      </c>
+      <c r="P32" s="7"/>
+      <c r="Q32" s="7"/>
+      <c r="R32" s="7"/>
       <c r="S32" s="8"/>
     </row>
     <row r="33" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1441,15 +1317,9 @@
       <c r="E33" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="P33" s="7">
-        <v>10000</v>
-      </c>
-      <c r="Q33" s="7">
-        <v>30000</v>
-      </c>
-      <c r="R33" s="7">
-        <v>100</v>
-      </c>
+      <c r="P33" s="7"/>
+      <c r="Q33" s="7"/>
+      <c r="R33" s="7"/>
       <c r="S33" s="8"/>
     </row>
     <row r="34" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1475,15 +1345,9 @@
       <c r="E35" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="P35" s="7">
-        <v>100</v>
-      </c>
-      <c r="Q35" s="7">
-        <v>30000</v>
-      </c>
-      <c r="R35" s="7">
-        <v>500</v>
-      </c>
+      <c r="P35" s="7"/>
+      <c r="Q35" s="7"/>
+      <c r="R35" s="7"/>
       <c r="S35" s="8"/>
     </row>
     <row r="36" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1499,15 +1363,9 @@
       <c r="E36" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="P36" s="7">
-        <v>200</v>
-      </c>
-      <c r="Q36" s="7">
-        <v>30000</v>
-      </c>
-      <c r="R36" s="7">
-        <v>500</v>
-      </c>
+      <c r="P36" s="7"/>
+      <c r="Q36" s="7"/>
+      <c r="R36" s="7"/>
       <c r="S36" s="8"/>
     </row>
     <row r="37" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1523,15 +1381,9 @@
       <c r="E37" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="P37" s="7">
-        <v>500</v>
-      </c>
-      <c r="Q37" s="7">
-        <v>30000</v>
-      </c>
-      <c r="R37" s="7">
-        <v>500</v>
-      </c>
+      <c r="P37" s="7"/>
+      <c r="Q37" s="7"/>
+      <c r="R37" s="7"/>
       <c r="S37" s="8"/>
     </row>
     <row r="38" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1547,15 +1399,9 @@
       <c r="E38" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="P38" s="7">
-        <v>1000</v>
-      </c>
-      <c r="Q38" s="7">
-        <v>30000</v>
-      </c>
-      <c r="R38" s="7">
-        <v>500</v>
-      </c>
+      <c r="P38" s="7"/>
+      <c r="Q38" s="7"/>
+      <c r="R38" s="7"/>
       <c r="S38" s="8"/>
     </row>
     <row r="39" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1571,15 +1417,9 @@
       <c r="E39" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="P39" s="7">
-        <v>2000</v>
-      </c>
-      <c r="Q39" s="7">
-        <v>30000</v>
-      </c>
-      <c r="R39" s="7">
-        <v>500</v>
-      </c>
+      <c r="P39" s="7"/>
+      <c r="Q39" s="7"/>
+      <c r="R39" s="7"/>
       <c r="S39" s="8"/>
     </row>
     <row r="40" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1595,15 +1435,9 @@
       <c r="E40" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="P40" s="7">
-        <v>5000</v>
-      </c>
-      <c r="Q40" s="7">
-        <v>30000</v>
-      </c>
-      <c r="R40" s="7">
-        <v>500</v>
-      </c>
+      <c r="P40" s="7"/>
+      <c r="Q40" s="7"/>
+      <c r="R40" s="7"/>
       <c r="S40" s="8"/>
     </row>
     <row r="41" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1619,15 +1453,9 @@
       <c r="E41" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="P41" s="7">
-        <v>10000</v>
-      </c>
-      <c r="Q41" s="7">
-        <v>30000</v>
-      </c>
-      <c r="R41" s="7">
-        <v>500</v>
-      </c>
+      <c r="P41" s="7"/>
+      <c r="Q41" s="7"/>
+      <c r="R41" s="7"/>
       <c r="S41" s="8"/>
     </row>
     <row r="42" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1653,15 +1481,9 @@
       <c r="E43" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="P43" s="7">
-        <v>100</v>
-      </c>
-      <c r="Q43" s="7">
-        <v>30000</v>
-      </c>
-      <c r="R43" s="7">
-        <v>1000</v>
-      </c>
+      <c r="P43" s="7"/>
+      <c r="Q43" s="7"/>
+      <c r="R43" s="7"/>
       <c r="S43" s="8"/>
     </row>
     <row r="44" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1677,15 +1499,9 @@
       <c r="E44" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="P44" s="7">
-        <v>200</v>
-      </c>
-      <c r="Q44" s="7">
-        <v>30000</v>
-      </c>
-      <c r="R44" s="7">
-        <v>1000</v>
-      </c>
+      <c r="P44" s="7"/>
+      <c r="Q44" s="7"/>
+      <c r="R44" s="7"/>
       <c r="S44" s="8"/>
     </row>
     <row r="45" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1701,15 +1517,9 @@
       <c r="E45" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="P45" s="7">
-        <v>500</v>
-      </c>
-      <c r="Q45" s="7">
-        <v>30000</v>
-      </c>
-      <c r="R45" s="7">
-        <v>1000</v>
-      </c>
+      <c r="P45" s="7"/>
+      <c r="Q45" s="7"/>
+      <c r="R45" s="7"/>
       <c r="S45" s="8"/>
     </row>
     <row r="46" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1725,15 +1535,9 @@
       <c r="E46" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="P46" s="7">
-        <v>1000</v>
-      </c>
-      <c r="Q46" s="7">
-        <v>30000</v>
-      </c>
-      <c r="R46" s="7">
-        <v>1000</v>
-      </c>
+      <c r="P46" s="7"/>
+      <c r="Q46" s="7"/>
+      <c r="R46" s="7"/>
       <c r="S46" s="8"/>
     </row>
     <row r="47" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1749,15 +1553,9 @@
       <c r="E47" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="P47" s="7">
-        <v>2000</v>
-      </c>
-      <c r="Q47" s="7">
-        <v>30000</v>
-      </c>
-      <c r="R47" s="7">
-        <v>1000</v>
-      </c>
+      <c r="P47" s="7"/>
+      <c r="Q47" s="7"/>
+      <c r="R47" s="7"/>
       <c r="S47" s="8"/>
     </row>
     <row r="48" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1773,15 +1571,9 @@
       <c r="E48" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="P48" s="7">
-        <v>5000</v>
-      </c>
-      <c r="Q48" s="7">
-        <v>30000</v>
-      </c>
-      <c r="R48" s="7">
-        <v>1000</v>
-      </c>
+      <c r="P48" s="7"/>
+      <c r="Q48" s="7"/>
+      <c r="R48" s="7"/>
       <c r="S48" s="8"/>
     </row>
     <row r="49" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1797,15 +1589,9 @@
       <c r="E49" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="P49" s="7">
-        <v>10000</v>
-      </c>
-      <c r="Q49" s="7">
-        <v>30000</v>
-      </c>
-      <c r="R49" s="7">
-        <v>1000</v>
-      </c>
+      <c r="P49" s="7"/>
+      <c r="Q49" s="7"/>
+      <c r="R49" s="7"/>
       <c r="S49" s="8"/>
     </row>
     <row r="50" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1831,15 +1617,9 @@
       <c r="E51" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="P51" s="7">
-        <v>100</v>
-      </c>
-      <c r="Q51" s="7">
-        <v>50000</v>
-      </c>
-      <c r="R51" s="7">
-        <v>100</v>
-      </c>
+      <c r="P51" s="7"/>
+      <c r="Q51" s="7"/>
+      <c r="R51" s="7"/>
       <c r="S51" s="8"/>
     </row>
     <row r="52" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1855,15 +1635,9 @@
       <c r="E52" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="P52" s="7">
-        <v>200</v>
-      </c>
-      <c r="Q52" s="7">
-        <v>50000</v>
-      </c>
-      <c r="R52" s="7">
-        <v>100</v>
-      </c>
+      <c r="P52" s="7"/>
+      <c r="Q52" s="7"/>
+      <c r="R52" s="7"/>
       <c r="S52" s="8"/>
     </row>
     <row r="53" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1879,15 +1653,9 @@
       <c r="E53" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="P53" s="7">
-        <v>500</v>
-      </c>
-      <c r="Q53" s="7">
-        <v>50000</v>
-      </c>
-      <c r="R53" s="7">
-        <v>100</v>
-      </c>
+      <c r="P53" s="7"/>
+      <c r="Q53" s="7"/>
+      <c r="R53" s="7"/>
       <c r="S53" s="8"/>
     </row>
     <row r="54" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1903,15 +1671,9 @@
       <c r="E54" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="P54" s="7">
-        <v>1000</v>
-      </c>
-      <c r="Q54" s="7">
-        <v>50000</v>
-      </c>
-      <c r="R54" s="7">
-        <v>100</v>
-      </c>
+      <c r="P54" s="7"/>
+      <c r="Q54" s="7"/>
+      <c r="R54" s="7"/>
       <c r="S54" s="8"/>
     </row>
     <row r="55" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1927,15 +1689,9 @@
       <c r="E55" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="P55" s="7">
-        <v>2000</v>
-      </c>
-      <c r="Q55" s="7">
-        <v>50000</v>
-      </c>
-      <c r="R55" s="7">
-        <v>100</v>
-      </c>
+      <c r="P55" s="7"/>
+      <c r="Q55" s="7"/>
+      <c r="R55" s="7"/>
       <c r="S55" s="8"/>
     </row>
     <row r="56" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1951,15 +1707,9 @@
       <c r="E56" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="P56" s="7">
-        <v>5000</v>
-      </c>
-      <c r="Q56" s="7">
-        <v>50000</v>
-      </c>
-      <c r="R56" s="7">
-        <v>100</v>
-      </c>
+      <c r="P56" s="7"/>
+      <c r="Q56" s="7"/>
+      <c r="R56" s="7"/>
       <c r="S56" s="8"/>
     </row>
     <row r="57" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1975,15 +1725,9 @@
       <c r="E57" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="P57" s="7">
-        <v>10000</v>
-      </c>
-      <c r="Q57" s="7">
-        <v>50000</v>
-      </c>
-      <c r="R57" s="7">
-        <v>100</v>
-      </c>
+      <c r="P57" s="7"/>
+      <c r="Q57" s="7"/>
+      <c r="R57" s="7"/>
       <c r="S57" s="8"/>
     </row>
     <row r="58" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2009,15 +1753,9 @@
       <c r="E59" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="P59" s="7">
-        <v>100</v>
-      </c>
-      <c r="Q59" s="7">
-        <v>50000</v>
-      </c>
-      <c r="R59" s="7">
-        <v>500</v>
-      </c>
+      <c r="P59" s="7"/>
+      <c r="Q59" s="7"/>
+      <c r="R59" s="7"/>
       <c r="S59" s="8"/>
     </row>
     <row r="60" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2033,15 +1771,9 @@
       <c r="E60" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="P60" s="7">
-        <v>200</v>
-      </c>
-      <c r="Q60" s="7">
-        <v>50000</v>
-      </c>
-      <c r="R60" s="7">
-        <v>500</v>
-      </c>
+      <c r="P60" s="7"/>
+      <c r="Q60" s="7"/>
+      <c r="R60" s="7"/>
       <c r="S60" s="8"/>
     </row>
     <row r="61" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2057,15 +1789,9 @@
       <c r="E61" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="P61" s="7">
-        <v>500</v>
-      </c>
-      <c r="Q61" s="7">
-        <v>50000</v>
-      </c>
-      <c r="R61" s="7">
-        <v>500</v>
-      </c>
+      <c r="P61" s="7"/>
+      <c r="Q61" s="7"/>
+      <c r="R61" s="7"/>
       <c r="S61" s="8"/>
     </row>
     <row r="62" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2081,15 +1807,9 @@
       <c r="E62" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="P62" s="7">
-        <v>1000</v>
-      </c>
-      <c r="Q62" s="7">
-        <v>50000</v>
-      </c>
-      <c r="R62" s="7">
-        <v>500</v>
-      </c>
+      <c r="P62" s="7"/>
+      <c r="Q62" s="7"/>
+      <c r="R62" s="7"/>
       <c r="S62" s="8"/>
     </row>
     <row r="63" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2105,15 +1825,9 @@
       <c r="E63" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="P63" s="7">
-        <v>2000</v>
-      </c>
-      <c r="Q63" s="7">
-        <v>50000</v>
-      </c>
-      <c r="R63" s="7">
-        <v>500</v>
-      </c>
+      <c r="P63" s="7"/>
+      <c r="Q63" s="7"/>
+      <c r="R63" s="7"/>
       <c r="S63" s="8"/>
     </row>
     <row r="64" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2129,15 +1843,9 @@
       <c r="E64" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="P64" s="7">
-        <v>5000</v>
-      </c>
-      <c r="Q64" s="7">
-        <v>50000</v>
-      </c>
-      <c r="R64" s="7">
-        <v>500</v>
-      </c>
+      <c r="P64" s="7"/>
+      <c r="Q64" s="7"/>
+      <c r="R64" s="7"/>
       <c r="S64" s="8"/>
     </row>
     <row r="65" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2153,15 +1861,9 @@
       <c r="E65" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="P65" s="7">
-        <v>10000</v>
-      </c>
-      <c r="Q65" s="7">
-        <v>50000</v>
-      </c>
-      <c r="R65" s="7">
-        <v>500</v>
-      </c>
+      <c r="P65" s="7"/>
+      <c r="Q65" s="7"/>
+      <c r="R65" s="7"/>
       <c r="S65" s="8"/>
     </row>
     <row r="66" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2187,15 +1889,9 @@
       <c r="E67" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="P67" s="7">
-        <v>100</v>
-      </c>
-      <c r="Q67" s="7">
-        <v>50000</v>
-      </c>
-      <c r="R67" s="7">
-        <v>1000</v>
-      </c>
+      <c r="P67" s="7"/>
+      <c r="Q67" s="7"/>
+      <c r="R67" s="7"/>
       <c r="S67" s="8"/>
     </row>
     <row r="68" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2211,15 +1907,9 @@
       <c r="E68" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="P68" s="7">
-        <v>200</v>
-      </c>
-      <c r="Q68" s="7">
-        <v>50000</v>
-      </c>
-      <c r="R68" s="7">
-        <v>1000</v>
-      </c>
+      <c r="P68" s="7"/>
+      <c r="Q68" s="7"/>
+      <c r="R68" s="7"/>
       <c r="S68" s="8"/>
     </row>
     <row r="69" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2235,15 +1925,9 @@
       <c r="E69" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="P69" s="7">
-        <v>500</v>
-      </c>
-      <c r="Q69" s="7">
-        <v>50000</v>
-      </c>
-      <c r="R69" s="7">
-        <v>1000</v>
-      </c>
+      <c r="P69" s="7"/>
+      <c r="Q69" s="7"/>
+      <c r="R69" s="7"/>
       <c r="S69" s="8"/>
     </row>
     <row r="70" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2259,15 +1943,9 @@
       <c r="E70" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="P70" s="7">
-        <v>1000</v>
-      </c>
-      <c r="Q70" s="7">
-        <v>50000</v>
-      </c>
-      <c r="R70" s="7">
-        <v>1000</v>
-      </c>
+      <c r="P70" s="7"/>
+      <c r="Q70" s="7"/>
+      <c r="R70" s="7"/>
       <c r="S70" s="8"/>
     </row>
     <row r="71" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2283,15 +1961,9 @@
       <c r="E71" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="P71" s="7">
-        <v>2000</v>
-      </c>
-      <c r="Q71" s="7">
-        <v>50000</v>
-      </c>
-      <c r="R71" s="7">
-        <v>1000</v>
-      </c>
+      <c r="P71" s="7"/>
+      <c r="Q71" s="7"/>
+      <c r="R71" s="7"/>
       <c r="S71" s="8"/>
     </row>
     <row r="72" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2307,15 +1979,9 @@
       <c r="E72" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="P72" s="7">
-        <v>5000</v>
-      </c>
-      <c r="Q72" s="7">
-        <v>50000</v>
-      </c>
-      <c r="R72" s="7">
-        <v>1000</v>
-      </c>
+      <c r="P72" s="7"/>
+      <c r="Q72" s="7"/>
+      <c r="R72" s="7"/>
       <c r="S72" s="8"/>
     </row>
     <row r="73" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2331,15 +1997,9 @@
       <c r="E73" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="P73" s="7">
-        <v>10000</v>
-      </c>
-      <c r="Q73" s="7">
-        <v>50000</v>
-      </c>
-      <c r="R73" s="7">
-        <v>1000</v>
-      </c>
+      <c r="P73" s="7"/>
+      <c r="Q73" s="7"/>
+      <c r="R73" s="7"/>
       <c r="S73" s="8"/>
     </row>
     <row r="74" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
